--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +177,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="5" customFormat="true">
+      <c r="A1" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="5">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +224,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +270,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -396,10 +408,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -443,28 +455,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="3">
+      <c r="A11" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="3">
+      <c r="C11" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="F11" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="G11" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -489,28 +501,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="3">
+      <c r="B13" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="3">
+      <c r="C13" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="3">
+      <c r="D13" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="3">
+      <c r="E13" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="3">
+      <c r="F13" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="3">
+      <c r="G13" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="3">
+      <c r="H13" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="3">
+      <c r="I13" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -598,10 +610,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="J16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -645,28 +657,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="3">
+      <c r="A18" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B18" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="3">
+      <c r="C18" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="3">
+      <c r="E18" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="3">
+      <c r="F18" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="3">
+      <c r="G18" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="3">
+      <c r="H18" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -691,28 +703,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="3">
+      <c r="B20" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="3">
+      <c r="C20" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="3">
+      <c r="D20" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="3">
+      <c r="E20" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="3">
+      <c r="F20" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="3">
+      <c r="G20" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="3">
+      <c r="H20" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="3">
+      <c r="I20" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -800,10 +812,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -847,28 +859,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="3">
+      <c r="A25" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="3">
+      <c r="B25" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="3">
+      <c r="C25" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="3">
+      <c r="E25" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="3">
+      <c r="F25" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="3">
+      <c r="G25" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="3">
+      <c r="H25" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -893,28 +905,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="3">
+      <c r="B27" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="3">
+      <c r="C27" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="3">
+      <c r="D27" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="3">
+      <c r="E27" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="3">
+      <c r="F27" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="3">
+      <c r="G27" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="3">
+      <c r="H27" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="3">
+      <c r="I27" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1031,10 +1043,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="3" t="s">
+      <c r="J31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1078,28 +1090,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="3">
+      <c r="A33" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="3">
+      <c r="C33" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -1124,28 +1136,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="3">
+      <c r="B35" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="C35" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="3">
+      <c r="D35" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="3">
+      <c r="F35" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="3">
+      <c r="G35" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="3">
+      <c r="H35" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="3">
+      <c r="I35" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1233,10 +1245,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="3" t="s">
+      <c r="J38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1280,28 +1292,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="3">
+      <c r="A40" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="3">
+      <c r="C40" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -1326,28 +1338,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="3">
+      <c r="B42" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="3">
+      <c r="C42" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="3">
+      <c r="D42" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="3">
+      <c r="E42" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="3">
+      <c r="F42" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="3">
+      <c r="G42" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="3">
+      <c r="H42" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="3">
+      <c r="I42" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1464,10 +1476,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="3" t="s">
+      <c r="J46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1511,28 +1523,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="3">
+      <c r="A48" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="3">
+      <c r="B48" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="3">
+      <c r="C48" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="E48" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="3">
+      <c r="F48" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="3">
+      <c r="G48" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="3">
+      <c r="H48" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -1557,28 +1569,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="3">
+      <c r="B50" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="3">
+      <c r="C50" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="3">
+      <c r="D50" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="3">
+      <c r="F50" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="3">
+      <c r="G50" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="3">
+      <c r="H50" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="3">
+      <c r="I50" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1695,10 +1707,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="3" t="s">
+      <c r="J54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1742,28 +1754,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="3">
+      <c r="A56" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="3">
+      <c r="B56" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="3">
+      <c r="C56" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="3">
+      <c r="F56" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="3">
+      <c r="G56" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="3">
+      <c r="H56" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -1788,28 +1800,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="3">
+      <c r="C58" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="3">
+      <c r="D58" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="3">
+      <c r="I58" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1897,10 +1909,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="3" t="s">
+      <c r="J61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1944,28 +1956,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="3">
+      <c r="A63" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="3">
+      <c r="B63" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="3">
+      <c r="C63" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="3">
+      <c r="F63" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="3">
+      <c r="G63" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="3">
+      <c r="H63" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -1990,28 +2002,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="3">
+      <c r="B65" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="3">
+      <c r="C65" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="3">
+      <c r="D65" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="3">
+      <c r="E65" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="3">
+      <c r="F65" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="3">
+      <c r="G65" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="3">
+      <c r="H65" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="3">
+      <c r="I65" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -2099,10 +2111,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="3" t="s">
+      <c r="J68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2146,28 +2158,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="3">
+      <c r="A70" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="3">
+      <c r="B70" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="3">
+      <c r="C70" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="3">
+      <c r="F70" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="3">
+      <c r="G70" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="3">
+      <c r="H70" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -2192,28 +2204,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="3">
+      <c r="C72" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="3">
+      <c r="D72" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="3">
+      <c r="I72" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -2301,10 +2313,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="3" t="s">
+      <c r="J75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2348,28 +2360,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="3">
+      <c r="A77" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="3">
+      <c r="B77" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="3">
+      <c r="C77" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="E77" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="3">
+      <c r="F77" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="3">
+      <c r="G77" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="3">
+      <c r="H77" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -2394,28 +2406,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="3">
+      <c r="B79" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="3">
+      <c r="C79" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="3">
+      <c r="D79" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="3">
+      <c r="F79" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="3">
+      <c r="G79" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="3">
+      <c r="H79" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="3">
+      <c r="I79" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -2532,10 +2544,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="3" t="s">
+      <c r="J83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2579,28 +2591,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="3">
+      <c r="A85" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="3">
+      <c r="C85" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -2625,28 +2637,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="3">
+      <c r="C87" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="3">
+      <c r="D87" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="3">
+      <c r="I87" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -2734,10 +2746,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="3" t="s">
+      <c r="J90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2781,28 +2793,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="3">
+      <c r="A92" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="3">
+      <c r="C92" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -2827,28 +2839,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="3">
+      <c r="C94" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="3">
+      <c r="D94" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="3">
+      <c r="I94" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -2965,10 +2977,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="3" t="s">
+      <c r="J98" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3012,28 +3024,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="3">
+      <c r="A100" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="3">
+      <c r="B100" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="3">
+      <c r="C100" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="3">
+      <c r="E100" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="3">
+      <c r="F100" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="3">
+      <c r="G100" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="3">
+      <c r="H100" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -3058,28 +3070,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="3">
+      <c r="B102" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="3">
+      <c r="C102" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="3">
+      <c r="D102" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="3">
+      <c r="F102" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="3">
+      <c r="G102" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="3">
+      <c r="H102" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="3">
+      <c r="I102" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -3167,10 +3179,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="3" t="s">
+      <c r="J105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3214,28 +3226,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="3">
+      <c r="A107" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="3">
+      <c r="B107" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="3">
+      <c r="C107" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="3">
+      <c r="F107" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="3">
+      <c r="G107" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="3">
+      <c r="H107" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -3260,28 +3272,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="3">
+      <c r="B109" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="3">
+      <c r="C109" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="3">
+      <c r="D109" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="3">
+      <c r="F109" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="3">
+      <c r="G109" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="3">
+      <c r="H109" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="3">
+      <c r="I109" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -3398,10 +3410,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="3" t="s">
+      <c r="J113" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3445,28 +3457,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="3">
+      <c r="A115" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="3">
+      <c r="C115" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -3491,28 +3503,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="3">
+      <c r="C117" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="3">
+      <c r="D117" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="3">
+      <c r="I117" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -3629,10 +3641,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="3" t="s">
+      <c r="J121" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3676,28 +3688,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="3">
+      <c r="A123" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="3">
+      <c r="B123" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="3">
+      <c r="C123" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="3">
+      <c r="E123" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="3">
+      <c r="F123" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="3">
+      <c r="G123" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="3">
+      <c r="H123" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -3722,28 +3734,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="3">
+      <c r="B125" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="3">
+      <c r="C125" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="3">
+      <c r="D125" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="3">
+      <c r="E125" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="3">
+      <c r="F125" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="3">
+      <c r="G125" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="3">
+      <c r="H125" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="3">
+      <c r="I125" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -3860,10 +3872,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="3" t="s">
+      <c r="J129" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3907,28 +3919,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="3">
+      <c r="A131" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="3">
+      <c r="C131" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -3953,28 +3965,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="3">
+      <c r="B133" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="3">
+      <c r="C133" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="3">
+      <c r="D133" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="3">
+      <c r="F133" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="3">
+      <c r="G133" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="3">
+      <c r="H133" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="3">
+      <c r="I133" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -4062,10 +4074,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="3" t="s">
+      <c r="J136" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4109,28 +4121,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="3">
+      <c r="A138" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="3">
+      <c r="C138" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -4155,28 +4167,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="3">
+      <c r="B140" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="3">
+      <c r="C140" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="3">
+      <c r="D140" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="3">
+      <c r="E140" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="3">
+      <c r="F140" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="3">
+      <c r="G140" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="3">
+      <c r="H140" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="3">
+      <c r="I140" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -4293,10 +4305,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="3" t="s">
+      <c r="J144" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4340,28 +4352,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="3">
+      <c r="A146" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="3">
+      <c r="B146" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="3">
+      <c r="C146" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="3">
+      <c r="F146" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="3">
+      <c r="G146" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="3">
+      <c r="H146" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -4386,28 +4398,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="3">
+      <c r="C148" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="3">
+      <c r="D148" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="3">
+      <c r="I148" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -4495,10 +4507,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="3" t="s">
+      <c r="J151" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4542,28 +4554,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="3">
+      <c r="A153" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="3">
+      <c r="B153" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="3">
+      <c r="C153" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="3">
+      <c r="F153" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="3">
+      <c r="G153" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="3">
+      <c r="H153" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -4588,28 +4600,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="3">
+      <c r="B155" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="3">
+      <c r="C155" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="3">
+      <c r="D155" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="3">
+      <c r="E155" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="3">
+      <c r="F155" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="3">
+      <c r="G155" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="3">
+      <c r="H155" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="3">
+      <c r="I155" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -4697,10 +4709,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="3" t="s">
+      <c r="J158" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4744,28 +4756,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="3">
+      <c r="A160" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="3">
+      <c r="B160" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="3">
+      <c r="C160" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="3">
+      <c r="F160" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="3">
+      <c r="G160" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="3">
+      <c r="H160" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -4790,28 +4802,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="3">
+      <c r="B162" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="3">
+      <c r="C162" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="3">
+      <c r="D162" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="3">
+      <c r="E162" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="F162" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="3">
+      <c r="G162" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="3">
+      <c r="H162" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="3">
+      <c r="I162" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -4899,10 +4911,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="3" t="s">
+      <c r="J165" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4946,28 +4958,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="3">
+      <c r="A167" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="3">
+      <c r="B167" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="3">
+      <c r="C167" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="3">
+      <c r="E167" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="3">
+      <c r="F167" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="3">
+      <c r="G167" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="3">
+      <c r="H167" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -4992,28 +5004,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="3">
+      <c r="B169" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="3">
+      <c r="C169" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="3">
+      <c r="D169" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="3">
+      <c r="E169" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="3">
+      <c r="F169" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="3">
+      <c r="G169" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="3">
+      <c r="H169" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="3">
+      <c r="I169" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -5130,10 +5142,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="3" t="s">
+      <c r="J173" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5177,28 +5189,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="3">
+      <c r="A175" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="3">
+      <c r="B175" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="3">
+      <c r="C175" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="3">
+      <c r="E175" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="3">
+      <c r="F175" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="3">
+      <c r="G175" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="3">
+      <c r="H175" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -5223,28 +5235,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="3">
+      <c r="B177" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="3">
+      <c r="C177" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="3">
+      <c r="D177" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="3">
+      <c r="E177" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="3">
+      <c r="F177" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="3">
+      <c r="G177" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="3">
+      <c r="H177" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="3">
+      <c r="I177" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -5361,10 +5373,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="3" t="s">
+      <c r="J181" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5408,28 +5420,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="3">
+      <c r="A183" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="3">
+      <c r="B183" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="3">
+      <c r="C183" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="3">
+      <c r="E183" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="3">
+      <c r="F183" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="3">
+      <c r="G183" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="3">
+      <c r="H183" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -5454,28 +5466,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="3">
+      <c r="B185" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="3">
+      <c r="C185" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="3">
+      <c r="D185" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="3">
+      <c r="E185" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="3">
+      <c r="F185" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="3">
+      <c r="G185" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="3">
+      <c r="H185" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="3">
+      <c r="I185" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -5592,10 +5604,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="3" t="s">
+      <c r="J189" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5639,28 +5651,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="3">
+      <c r="A191" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="3">
+      <c r="B191" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="3">
+      <c r="C191" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="3">
+      <c r="E191" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="3">
+      <c r="F191" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="3">
+      <c r="G191" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="3">
+      <c r="H191" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -5685,28 +5697,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="3">
+      <c r="B193" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="3">
+      <c r="C193" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="3">
+      <c r="D193" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="3">
+      <c r="E193" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="3">
+      <c r="F193" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="3">
+      <c r="G193" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="3">
+      <c r="H193" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="3">
+      <c r="I193" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -5823,10 +5835,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="3" t="s">
+      <c r="J197" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5870,28 +5882,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="3">
+      <c r="A199" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="3">
+      <c r="B199" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="3">
+      <c r="C199" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="3">
+      <c r="E199" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="3">
+      <c r="F199" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="3">
+      <c r="G199" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="3">
+      <c r="H199" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -5916,28 +5928,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="3">
+      <c r="B201" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="3">
+      <c r="C201" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="3">
+      <c r="D201" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="3">
+      <c r="E201" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="3">
+      <c r="F201" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="3">
+      <c r="G201" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="3">
+      <c r="H201" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="3">
+      <c r="I201" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -6054,10 +6066,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="3" t="s">
+      <c r="J205" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6101,28 +6113,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="3">
+      <c r="A207" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="3">
+      <c r="B207" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="3">
+      <c r="C207" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="3">
+      <c r="E207" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="3">
+      <c r="F207" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="3">
+      <c r="G207" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="3">
+      <c r="H207" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -6147,28 +6159,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="3">
+      <c r="C209" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="3">
+      <c r="D209" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="3">
+      <c r="I209" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -6256,10 +6268,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="3" t="s">
+      <c r="J212" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6303,28 +6315,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="3">
+      <c r="A214" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="3">
+      <c r="C214" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -6349,28 +6361,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="3">
+      <c r="C216" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="3">
+      <c r="D216" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="3">
+      <c r="I216" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -6458,10 +6470,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="3" t="s">
+      <c r="J219" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6505,28 +6517,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="3">
+      <c r="A221" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="3">
+      <c r="B221" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="3">
+      <c r="C221" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="3">
+      <c r="E221" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="3">
+      <c r="F221" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="3">
+      <c r="G221" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="3">
+      <c r="H221" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -6551,28 +6563,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="3">
+      <c r="B223" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="3">
+      <c r="C223" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="3">
+      <c r="D223" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="3">
+      <c r="E223" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="3">
+      <c r="F223" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="3">
+      <c r="G223" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="3">
+      <c r="H223" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="3">
+      <c r="I223" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -6660,10 +6672,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="3" t="s">
+      <c r="J226" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6707,28 +6719,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="3">
+      <c r="A228" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="3">
+      <c r="B228" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="3">
+      <c r="C228" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="3">
+      <c r="E228" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="3">
+      <c r="F228" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="3">
+      <c r="G228" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="3">
+      <c r="H228" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -6753,28 +6765,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="3">
+      <c r="B230" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="3">
+      <c r="C230" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="3">
+      <c r="D230" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="3">
+      <c r="E230" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="3">
+      <c r="F230" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="3">
+      <c r="G230" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="3">
+      <c r="H230" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="3">
+      <c r="I230" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -6862,10 +6874,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="3" t="s">
+      <c r="J233" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6909,28 +6921,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="3">
+      <c r="A235" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="3">
+      <c r="B235" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="3">
+      <c r="C235" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="3">
+      <c r="E235" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="3">
+      <c r="F235" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="3">
+      <c r="G235" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="3">
+      <c r="H235" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -6955,28 +6967,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="3">
+      <c r="B237" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="3">
+      <c r="C237" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="3">
+      <c r="D237" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="3">
+      <c r="E237" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="3">
+      <c r="F237" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="3">
+      <c r="G237" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="3">
+      <c r="H237" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="3">
+      <c r="I237" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -7064,10 +7076,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="3" t="s">
+      <c r="J240" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7111,28 +7123,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="3">
+      <c r="A242" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="3">
+      <c r="B242" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="3">
+      <c r="C242" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="3">
+      <c r="E242" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="3">
+      <c r="F242" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="3">
+      <c r="G242" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="3">
+      <c r="H242" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -7157,28 +7169,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="3">
+      <c r="B244" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="3">
+      <c r="C244" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="3">
+      <c r="D244" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="3">
+      <c r="E244" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="3">
+      <c r="F244" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="3">
+      <c r="G244" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="3">
+      <c r="H244" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="3">
+      <c r="I244" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -7266,10 +7278,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="3" t="s">
+      <c r="J247" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7313,28 +7325,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="3">
+      <c r="A249" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="3">
+      <c r="B249" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="3">
+      <c r="C249" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="3">
+      <c r="E249" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="3">
+      <c r="F249" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="3">
+      <c r="G249" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="3">
+      <c r="H249" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -7359,28 +7371,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="3">
+      <c r="B251" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="3">
+      <c r="C251" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="3">
+      <c r="D251" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="3">
+      <c r="E251" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="3">
+      <c r="F251" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="3">
+      <c r="G251" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="3">
+      <c r="H251" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="3">
+      <c r="I251" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -7497,10 +7509,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="3" t="s">
+      <c r="J255" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7544,28 +7556,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="3">
+      <c r="A257" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="3">
+      <c r="B257" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="3">
+      <c r="C257" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="3">
+      <c r="E257" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="3">
+      <c r="F257" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="3">
+      <c r="G257" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="3">
+      <c r="H257" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -7590,28 +7602,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="3">
+      <c r="B259" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="3">
+      <c r="C259" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="3">
+      <c r="D259" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="3">
+      <c r="E259" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="3">
+      <c r="F259" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="3">
+      <c r="G259" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="3">
+      <c r="H259" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="3">
+      <c r="I259" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -7757,10 +7769,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="3" t="s">
+      <c r="J264" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7804,28 +7816,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="3">
+      <c r="A266" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="3">
+      <c r="B266" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="3">
+      <c r="C266" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="3">
+      <c r="E266" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="3">
+      <c r="F266" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="3">
+      <c r="G266" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="3">
+      <c r="H266" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -7850,28 +7862,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="3">
+      <c r="B268" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="3">
+      <c r="C268" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="3">
+      <c r="D268" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="3">
+      <c r="E268" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="3">
+      <c r="F268" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="3">
+      <c r="G268" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="3">
+      <c r="H268" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="3">
+      <c r="I268" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -7988,10 +8000,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="3" t="s">
+      <c r="J272" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8035,28 +8047,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="3">
+      <c r="A274" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="3">
+      <c r="B274" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="3">
+      <c r="C274" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="3">
+      <c r="E274" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="3">
+      <c r="F274" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="3">
+      <c r="G274" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="3">
+      <c r="H274" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -8081,28 +8093,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="3">
+      <c r="B276" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="3">
+      <c r="C276" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="3">
+      <c r="D276" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="3">
+      <c r="E276" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="3">
+      <c r="F276" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="3">
+      <c r="G276" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="3">
+      <c r="H276" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="3">
+      <c r="I276" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -8219,10 +8231,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="3" t="s">
+      <c r="J280" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8266,28 +8278,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="3">
+      <c r="A282" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="3">
+      <c r="B282" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="3">
+      <c r="C282" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="3">
+      <c r="E282" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="3">
+      <c r="F282" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="3">
+      <c r="G282" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="3">
+      <c r="H282" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -8312,28 +8324,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="3">
+      <c r="B284" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="3">
+      <c r="C284" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="3">
+      <c r="D284" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="3">
+      <c r="E284" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="3">
+      <c r="F284" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="3">
+      <c r="G284" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="3">
+      <c r="H284" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="3">
+      <c r="I284" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -8421,10 +8433,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="3" t="s">
+      <c r="J287" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8468,28 +8480,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="3">
+      <c r="A289" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="3">
+      <c r="B289" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="3">
+      <c r="C289" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="3">
+      <c r="E289" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="3">
+      <c r="F289" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="3">
+      <c r="G289" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="3">
+      <c r="H289" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -8514,28 +8526,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="3">
+      <c r="B291" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="3">
+      <c r="C291" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="3">
+      <c r="D291" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="3">
+      <c r="E291" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="3">
+      <c r="F291" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="3">
+      <c r="G291" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="3">
+      <c r="H291" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="3">
+      <c r="I291" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -8652,10 +8664,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="3" t="s">
+      <c r="J295" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8699,28 +8711,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="3">
+      <c r="A297" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="3">
+      <c r="B297" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="3">
+      <c r="C297" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="3">
+      <c r="E297" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="3">
+      <c r="F297" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="3">
+      <c r="G297" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="3">
+      <c r="H297" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -8745,28 +8757,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="3">
+      <c r="B299" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="3">
+      <c r="C299" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="3">
+      <c r="D299" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="3">
+      <c r="E299" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="3">
+      <c r="F299" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="3">
+      <c r="G299" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="3">
+      <c r="H299" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="3">
+      <c r="I299" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -8825,10 +8837,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="3" t="s">
+      <c r="J301" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9568" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -148,13 +188,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -177,26 +225,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true">
-      <c r="A1" t="s" s="5">
+    <row r="1" s="13" customFormat="true">
+      <c r="A1" t="s" s="13">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="B1" t="s" s="13">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="5">
+      <c r="C1" t="s" s="13">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="5">
+      <c r="D1" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="5">
+      <c r="F1" t="s" s="13">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="5">
+      <c r="G1" t="s" s="13">
         <v>7</v>
       </c>
     </row>
@@ -224,28 +272,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="5">
+      <c r="C3" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="5">
+      <c r="F3" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="5">
+      <c r="G3" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="5">
+      <c r="H3" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -270,28 +318,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="5">
+      <c r="B5" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="5">
+      <c r="E5" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="5">
+      <c r="F5" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="5">
+      <c r="G5" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="5">
+      <c r="H5" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="5">
+      <c r="I5" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -408,10 +456,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="J9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -455,28 +503,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="5">
+      <c r="A11" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="5">
+      <c r="B11" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="5">
+      <c r="C11" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="5">
+      <c r="E11" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="5">
+      <c r="G11" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="5">
+      <c r="H11" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -501,28 +549,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="5">
+      <c r="B13" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="5">
+      <c r="C13" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="5">
+      <c r="D13" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="5">
+      <c r="E13" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="5">
+      <c r="G13" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="5">
+      <c r="H13" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="5">
+      <c r="I13" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -610,10 +658,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="J16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -657,28 +705,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="5">
+      <c r="A18" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="5">
+      <c r="B18" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="5">
+      <c r="C18" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="5">
+      <c r="E18" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="5">
+      <c r="F18" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="5">
+      <c r="G18" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="5">
+      <c r="H18" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -703,28 +751,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="5">
+      <c r="B20" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="5">
+      <c r="C20" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="5">
+      <c r="D20" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="5">
+      <c r="E20" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="5">
+      <c r="F20" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="5">
+      <c r="G20" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="5">
+      <c r="H20" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="5">
+      <c r="I20" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -812,10 +860,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="5" t="s">
+      <c r="J23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -859,28 +907,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="5">
+      <c r="A25" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="5">
+      <c r="B25" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="5">
+      <c r="C25" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="5">
+      <c r="E25" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="5">
+      <c r="F25" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="5">
+      <c r="G25" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="5">
+      <c r="H25" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -905,28 +953,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="5">
+      <c r="B27" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="5">
+      <c r="C27" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="5">
+      <c r="D27" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="5">
+      <c r="E27" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="5">
+      <c r="F27" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="5">
+      <c r="G27" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="5">
+      <c r="H27" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="5">
+      <c r="I27" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -1043,10 +1091,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="5" t="s">
+      <c r="J31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1090,28 +1138,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="5">
+      <c r="A33" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="5">
+      <c r="B33" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="5">
+      <c r="C33" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="5">
+      <c r="E33" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="5">
+      <c r="F33" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="5">
+      <c r="G33" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="5">
+      <c r="H33" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -1136,28 +1184,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="5">
+      <c r="B35" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="5">
+      <c r="C35" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="5">
+      <c r="D35" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="5">
+      <c r="E35" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="5">
+      <c r="F35" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="5">
+      <c r="G35" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="5">
+      <c r="H35" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="5">
+      <c r="I35" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -1245,10 +1293,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="5" t="s">
+      <c r="J38" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1292,28 +1340,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="5">
+      <c r="A40" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="5">
+      <c r="B40" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="5">
+      <c r="C40" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="5">
+      <c r="E40" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="5">
+      <c r="F40" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="5">
+      <c r="G40" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="5">
+      <c r="H40" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -1338,28 +1386,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="5">
+      <c r="B42" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="5">
+      <c r="C42" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="5">
+      <c r="D42" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="5">
+      <c r="E42" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="5">
+      <c r="F42" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="5">
+      <c r="G42" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="5">
+      <c r="H42" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="5">
+      <c r="I42" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -1476,10 +1524,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="5" t="s">
+      <c r="J46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1523,28 +1571,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="5">
+      <c r="A48" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="5">
+      <c r="B48" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="5">
+      <c r="C48" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="5">
+      <c r="E48" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="5">
+      <c r="F48" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="5">
+      <c r="G48" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="5">
+      <c r="H48" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -1569,28 +1617,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="5">
+      <c r="B50" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="5">
+      <c r="C50" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="5">
+      <c r="D50" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="5">
+      <c r="E50" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="5">
+      <c r="F50" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="5">
+      <c r="G50" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="5">
+      <c r="H50" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="5">
+      <c r="I50" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -1707,10 +1755,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="5" t="s">
+      <c r="J54" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1754,28 +1802,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="5">
+      <c r="A56" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="5">
+      <c r="B56" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="5">
+      <c r="C56" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="5">
+      <c r="E56" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="5">
+      <c r="F56" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="5">
+      <c r="G56" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="5">
+      <c r="H56" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -1800,28 +1848,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="5">
+      <c r="B58" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="5">
+      <c r="C58" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="5">
+      <c r="D58" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="5">
+      <c r="E58" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="5">
+      <c r="F58" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="5">
+      <c r="G58" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="5">
+      <c r="H58" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="5">
+      <c r="I58" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -1909,10 +1957,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="5" t="s">
+      <c r="J61" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1956,28 +2004,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="5">
+      <c r="A63" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="5">
+      <c r="B63" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="5">
+      <c r="C63" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="5">
+      <c r="E63" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="5">
+      <c r="F63" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="5">
+      <c r="G63" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="5">
+      <c r="H63" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2002,28 +2050,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="5">
+      <c r="B65" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="5">
+      <c r="C65" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="5">
+      <c r="D65" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="5">
+      <c r="E65" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="5">
+      <c r="F65" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="5">
+      <c r="G65" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="5">
+      <c r="H65" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="5">
+      <c r="I65" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2111,10 +2159,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="5" t="s">
+      <c r="J68" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2158,28 +2206,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="5">
+      <c r="A70" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="5">
+      <c r="B70" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="5">
+      <c r="C70" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="5">
+      <c r="E70" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="5">
+      <c r="F70" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="5">
+      <c r="G70" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="5">
+      <c r="H70" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2204,28 +2252,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="5">
+      <c r="B72" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="5">
+      <c r="C72" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="5">
+      <c r="D72" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="5">
+      <c r="E72" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="5">
+      <c r="F72" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="5">
+      <c r="G72" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="5">
+      <c r="H72" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="5">
+      <c r="I72" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2313,10 +2361,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="5" t="s">
+      <c r="J75" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2360,28 +2408,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="5">
+      <c r="A77" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="5">
+      <c r="B77" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="5">
+      <c r="C77" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="5">
+      <c r="E77" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="5">
+      <c r="F77" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="5">
+      <c r="G77" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="5">
+      <c r="H77" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2406,28 +2454,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="5">
+      <c r="B79" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="5">
+      <c r="C79" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="5">
+      <c r="D79" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="5">
+      <c r="E79" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="5">
+      <c r="F79" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="5">
+      <c r="G79" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="5">
+      <c r="H79" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="5">
+      <c r="I79" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2544,10 +2592,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="5" t="s">
+      <c r="J83" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2591,28 +2639,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="5">
+      <c r="A85" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="5">
+      <c r="B85" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="5">
+      <c r="C85" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="5">
+      <c r="E85" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="5">
+      <c r="F85" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="5">
+      <c r="G85" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="5">
+      <c r="H85" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2637,28 +2685,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="5">
+      <c r="B87" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="5">
+      <c r="C87" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="5">
+      <c r="D87" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="5">
+      <c r="E87" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="5">
+      <c r="F87" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="5">
+      <c r="G87" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="5">
+      <c r="H87" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="5">
+      <c r="I87" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2746,10 +2794,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="5" t="s">
+      <c r="J90" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2793,28 +2841,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="5">
+      <c r="A92" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="5">
+      <c r="B92" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="5">
+      <c r="C92" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="5">
+      <c r="E92" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="5">
+      <c r="F92" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="5">
+      <c r="G92" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="5">
+      <c r="H92" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2839,28 +2887,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="5">
+      <c r="B94" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="5">
+      <c r="C94" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="5">
+      <c r="D94" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="5">
+      <c r="E94" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="5">
+      <c r="F94" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="5">
+      <c r="G94" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="5">
+      <c r="H94" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="5">
+      <c r="I94" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2977,10 +3025,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="5" t="s">
+      <c r="J98" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3024,28 +3072,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="5">
+      <c r="A100" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="5">
+      <c r="B100" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="5">
+      <c r="C100" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="5">
+      <c r="E100" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="5">
+      <c r="F100" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="5">
+      <c r="G100" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="5">
+      <c r="H100" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3070,28 +3118,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="5">
+      <c r="B102" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="5">
+      <c r="C102" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="5">
+      <c r="D102" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="5">
+      <c r="E102" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="5">
+      <c r="F102" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="5">
+      <c r="G102" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="5">
+      <c r="H102" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="5">
+      <c r="I102" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -3179,10 +3227,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="5" t="s">
+      <c r="J105" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3226,28 +3274,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="5">
+      <c r="A107" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="5">
+      <c r="B107" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="5">
+      <c r="C107" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="5">
+      <c r="E107" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="5">
+      <c r="F107" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="5">
+      <c r="G107" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="5">
+      <c r="H107" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3272,28 +3320,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="5">
+      <c r="B109" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="5">
+      <c r="C109" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="5">
+      <c r="D109" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="5">
+      <c r="E109" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="5">
+      <c r="F109" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="5">
+      <c r="G109" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="5">
+      <c r="H109" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="5">
+      <c r="I109" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -3410,10 +3458,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="5" t="s">
+      <c r="J113" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3457,28 +3505,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="5">
+      <c r="A115" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="5">
+      <c r="B115" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="5">
+      <c r="C115" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="5">
+      <c r="E115" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="5">
+      <c r="F115" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="5">
+      <c r="G115" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="5">
+      <c r="H115" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3503,28 +3551,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="5">
+      <c r="B117" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="5">
+      <c r="C117" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="5">
+      <c r="D117" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="5">
+      <c r="E117" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="5">
+      <c r="F117" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="5">
+      <c r="G117" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="5">
+      <c r="H117" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="5">
+      <c r="I117" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -3641,10 +3689,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="5" t="s">
+      <c r="J121" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3688,28 +3736,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="5">
+      <c r="A123" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="5">
+      <c r="B123" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="5">
+      <c r="C123" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="5">
+      <c r="E123" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="5">
+      <c r="F123" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="5">
+      <c r="G123" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="5">
+      <c r="H123" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3734,28 +3782,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="5">
+      <c r="B125" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="5">
+      <c r="C125" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="5">
+      <c r="D125" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="5">
+      <c r="E125" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="5">
+      <c r="F125" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="5">
+      <c r="G125" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="5">
+      <c r="H125" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="5">
+      <c r="I125" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -3872,10 +3920,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="5" t="s">
+      <c r="J129" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3919,28 +3967,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="5">
+      <c r="A131" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="5">
+      <c r="B131" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="5">
+      <c r="C131" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="5">
+      <c r="E131" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="5">
+      <c r="F131" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="5">
+      <c r="G131" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="5">
+      <c r="H131" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3965,28 +4013,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="5">
+      <c r="B133" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="5">
+      <c r="C133" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="5">
+      <c r="D133" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="5">
+      <c r="E133" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="5">
+      <c r="F133" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="5">
+      <c r="G133" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="5">
+      <c r="H133" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="5">
+      <c r="I133" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -4074,10 +4122,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="5" t="s">
+      <c r="J136" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4121,28 +4169,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="5">
+      <c r="A138" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="5">
+      <c r="B138" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="5">
+      <c r="C138" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="5">
+      <c r="E138" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="5">
+      <c r="F138" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="5">
+      <c r="G138" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="5">
+      <c r="H138" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -4167,28 +4215,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="5">
+      <c r="B140" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="5">
+      <c r="C140" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="5">
+      <c r="D140" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="5">
+      <c r="E140" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="5">
+      <c r="F140" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="5">
+      <c r="G140" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="5">
+      <c r="H140" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="5">
+      <c r="I140" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -4305,10 +4353,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="5" t="s">
+      <c r="J144" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4352,28 +4400,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="5">
+      <c r="A146" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="5">
+      <c r="B146" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="5">
+      <c r="C146" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="5">
+      <c r="E146" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="5">
+      <c r="F146" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="5">
+      <c r="G146" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="5">
+      <c r="H146" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -4398,28 +4446,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="5">
+      <c r="B148" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="5">
+      <c r="C148" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="5">
+      <c r="D148" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="5">
+      <c r="E148" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="5">
+      <c r="F148" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="5">
+      <c r="G148" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="5">
+      <c r="H148" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="5">
+      <c r="I148" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -4507,10 +4555,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="5" t="s">
+      <c r="J151" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4554,28 +4602,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="5">
+      <c r="A153" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="5">
+      <c r="B153" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="5">
+      <c r="C153" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="5">
+      <c r="E153" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="5">
+      <c r="F153" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="5">
+      <c r="G153" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="5">
+      <c r="H153" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -4600,28 +4648,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="5">
+      <c r="B155" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="5">
+      <c r="C155" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="5">
+      <c r="D155" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="5">
+      <c r="E155" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="5">
+      <c r="F155" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="5">
+      <c r="G155" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="5">
+      <c r="H155" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="5">
+      <c r="I155" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -4709,10 +4757,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="5" t="s">
+      <c r="J158" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4756,28 +4804,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="5">
+      <c r="A160" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="5">
+      <c r="B160" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="5">
+      <c r="C160" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="5">
+      <c r="E160" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="5">
+      <c r="F160" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="5">
+      <c r="G160" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="5">
+      <c r="H160" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -4802,28 +4850,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="5">
+      <c r="B162" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="5">
+      <c r="C162" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="5">
+      <c r="D162" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="5">
+      <c r="E162" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="5">
+      <c r="F162" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="5">
+      <c r="G162" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="5">
+      <c r="H162" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="5">
+      <c r="I162" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -4911,10 +4959,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="5" t="s">
+      <c r="J165" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4958,28 +5006,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="5">
+      <c r="A167" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="5">
+      <c r="B167" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="5">
+      <c r="C167" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="5">
+      <c r="E167" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="5">
+      <c r="F167" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="5">
+      <c r="G167" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="5">
+      <c r="H167" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -5004,28 +5052,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="5">
+      <c r="B169" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="5">
+      <c r="C169" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="5">
+      <c r="D169" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="5">
+      <c r="E169" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="5">
+      <c r="F169" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="5">
+      <c r="G169" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="5">
+      <c r="H169" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="5">
+      <c r="I169" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -5142,10 +5190,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="5" t="s">
+      <c r="J173" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5189,28 +5237,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="5">
+      <c r="A175" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="5">
+      <c r="B175" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="5">
+      <c r="C175" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="5">
+      <c r="E175" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="5">
+      <c r="F175" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="5">
+      <c r="G175" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="5">
+      <c r="H175" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -5235,28 +5283,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="5">
+      <c r="B177" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="5">
+      <c r="C177" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="5">
+      <c r="D177" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="5">
+      <c r="E177" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="5">
+      <c r="F177" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="5">
+      <c r="G177" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="5">
+      <c r="H177" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="5">
+      <c r="I177" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -5373,10 +5421,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="5" t="s">
+      <c r="J181" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5420,28 +5468,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="5">
+      <c r="A183" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="5">
+      <c r="B183" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="5">
+      <c r="C183" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="5">
+      <c r="E183" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="5">
+      <c r="F183" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="5">
+      <c r="G183" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="5">
+      <c r="H183" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -5466,28 +5514,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="5">
+      <c r="B185" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="5">
+      <c r="C185" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="5">
+      <c r="D185" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="5">
+      <c r="E185" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="5">
+      <c r="F185" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="5">
+      <c r="G185" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="5">
+      <c r="H185" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="5">
+      <c r="I185" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -5604,10 +5652,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="5" t="s">
+      <c r="J189" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5651,28 +5699,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="5">
+      <c r="A191" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="5">
+      <c r="B191" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="5">
+      <c r="C191" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="5">
+      <c r="E191" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="5">
+      <c r="F191" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="5">
+      <c r="G191" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="5">
+      <c r="H191" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -5697,28 +5745,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="5">
+      <c r="B193" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="5">
+      <c r="C193" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="5">
+      <c r="D193" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="5">
+      <c r="E193" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="5">
+      <c r="F193" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="5">
+      <c r="G193" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="5">
+      <c r="H193" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="5">
+      <c r="I193" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -5835,10 +5883,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="5" t="s">
+      <c r="J197" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5882,28 +5930,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="5">
+      <c r="A199" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="5">
+      <c r="B199" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="5">
+      <c r="C199" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="5">
+      <c r="E199" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="5">
+      <c r="F199" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="5">
+      <c r="G199" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="5">
+      <c r="H199" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -5928,28 +5976,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="5">
+      <c r="B201" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="5">
+      <c r="C201" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="5">
+      <c r="D201" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="5">
+      <c r="E201" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="5">
+      <c r="F201" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="5">
+      <c r="G201" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="5">
+      <c r="H201" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="5">
+      <c r="I201" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -6066,10 +6114,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="5" t="s">
+      <c r="J205" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6113,28 +6161,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="5">
+      <c r="A207" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="5">
+      <c r="B207" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="5">
+      <c r="C207" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="5">
+      <c r="E207" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="5">
+      <c r="F207" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="5">
+      <c r="G207" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="5">
+      <c r="H207" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -6159,28 +6207,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="5">
+      <c r="B209" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="5">
+      <c r="C209" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="5">
+      <c r="D209" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="5">
+      <c r="E209" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="5">
+      <c r="F209" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="5">
+      <c r="G209" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="5">
+      <c r="H209" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="5">
+      <c r="I209" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -6268,10 +6316,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="5" t="s">
+      <c r="J212" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6315,28 +6363,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="5">
+      <c r="A214" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="5">
+      <c r="B214" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="5">
+      <c r="C214" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="5">
+      <c r="E214" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="5">
+      <c r="F214" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="5">
+      <c r="G214" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="5">
+      <c r="H214" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -6361,28 +6409,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="5">
+      <c r="B216" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="5">
+      <c r="C216" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="5">
+      <c r="D216" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="5">
+      <c r="E216" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="5">
+      <c r="F216" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="5">
+      <c r="G216" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="5">
+      <c r="H216" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="5">
+      <c r="I216" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -6470,10 +6518,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="5" t="s">
+      <c r="J219" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6517,28 +6565,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="5">
+      <c r="A221" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="5">
+      <c r="B221" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="5">
+      <c r="C221" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="5">
+      <c r="E221" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="5">
+      <c r="F221" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="5">
+      <c r="G221" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="5">
+      <c r="H221" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -6563,28 +6611,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="5">
+      <c r="B223" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="5">
+      <c r="C223" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="5">
+      <c r="D223" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="5">
+      <c r="E223" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="5">
+      <c r="F223" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="5">
+      <c r="G223" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="5">
+      <c r="H223" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="5">
+      <c r="I223" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -6672,10 +6720,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="5" t="s">
+      <c r="J226" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6719,28 +6767,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="5">
+      <c r="A228" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="5">
+      <c r="B228" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="5">
+      <c r="C228" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="5">
+      <c r="E228" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="5">
+      <c r="F228" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="5">
+      <c r="G228" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="5">
+      <c r="H228" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -6765,28 +6813,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="5">
+      <c r="B230" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="5">
+      <c r="C230" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="5">
+      <c r="D230" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="5">
+      <c r="E230" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="5">
+      <c r="F230" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="5">
+      <c r="G230" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="5">
+      <c r="H230" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="5">
+      <c r="I230" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -6874,10 +6922,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="5" t="s">
+      <c r="J233" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6921,28 +6969,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="5">
+      <c r="A235" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="5">
+      <c r="B235" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="5">
+      <c r="C235" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="5">
+      <c r="E235" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="5">
+      <c r="F235" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="5">
+      <c r="G235" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="5">
+      <c r="H235" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -6967,28 +7015,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="5">
+      <c r="B237" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="5">
+      <c r="C237" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="5">
+      <c r="D237" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="5">
+      <c r="E237" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="5">
+      <c r="F237" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="5">
+      <c r="G237" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="5">
+      <c r="H237" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="5">
+      <c r="I237" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -7076,10 +7124,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="5" t="s">
+      <c r="J240" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7123,28 +7171,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="5">
+      <c r="A242" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="5">
+      <c r="B242" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="5">
+      <c r="C242" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="5">
+      <c r="E242" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="5">
+      <c r="F242" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="5">
+      <c r="G242" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="5">
+      <c r="H242" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -7169,28 +7217,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="5">
+      <c r="B244" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="5">
+      <c r="C244" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="5">
+      <c r="D244" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="5">
+      <c r="E244" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="5">
+      <c r="F244" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="5">
+      <c r="G244" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="5">
+      <c r="H244" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="5">
+      <c r="I244" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -7278,10 +7326,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="5" t="s">
+      <c r="J247" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7325,28 +7373,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="5">
+      <c r="A249" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="5">
+      <c r="B249" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="5">
+      <c r="C249" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="5">
+      <c r="E249" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="5">
+      <c r="F249" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="5">
+      <c r="G249" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="5">
+      <c r="H249" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -7371,28 +7419,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="5">
+      <c r="B251" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="5">
+      <c r="C251" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="5">
+      <c r="D251" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="5">
+      <c r="E251" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="5">
+      <c r="F251" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="5">
+      <c r="G251" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="5">
+      <c r="H251" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="5">
+      <c r="I251" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -7509,10 +7557,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="5" t="s">
+      <c r="J255" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7556,28 +7604,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="5">
+      <c r="A257" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="5">
+      <c r="B257" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="5">
+      <c r="C257" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="5">
+      <c r="E257" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="5">
+      <c r="F257" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="5">
+      <c r="G257" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="5">
+      <c r="H257" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -7602,28 +7650,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="5">
+      <c r="B259" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="5">
+      <c r="C259" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="5">
+      <c r="D259" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="5">
+      <c r="E259" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="5">
+      <c r="F259" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="5">
+      <c r="G259" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="5">
+      <c r="H259" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="5">
+      <c r="I259" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -7769,10 +7817,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="5" t="s">
+      <c r="J264" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7816,28 +7864,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="5">
+      <c r="A266" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="5">
+      <c r="B266" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="5">
+      <c r="C266" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="5">
+      <c r="E266" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="5">
+      <c r="F266" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="5">
+      <c r="G266" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="5">
+      <c r="H266" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -7862,28 +7910,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="5">
+      <c r="B268" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="5">
+      <c r="C268" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="5">
+      <c r="D268" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="5">
+      <c r="E268" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="5">
+      <c r="F268" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="5">
+      <c r="G268" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="5">
+      <c r="H268" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="5">
+      <c r="I268" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -8000,10 +8048,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="5" t="s">
+      <c r="J272" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8047,28 +8095,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="5">
+      <c r="A274" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="5">
+      <c r="B274" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="5">
+      <c r="C274" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="5">
+      <c r="E274" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="5">
+      <c r="F274" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="5">
+      <c r="G274" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="5">
+      <c r="H274" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -8093,28 +8141,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="5">
+      <c r="B276" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="5">
+      <c r="C276" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="5">
+      <c r="D276" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="5">
+      <c r="E276" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="5">
+      <c r="F276" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="5">
+      <c r="G276" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="5">
+      <c r="H276" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="5">
+      <c r="I276" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -8231,10 +8279,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="5" t="s">
+      <c r="J280" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8278,28 +8326,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="5">
+      <c r="A282" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="5">
+      <c r="B282" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="5">
+      <c r="C282" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="5">
+      <c r="E282" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="5">
+      <c r="F282" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="5">
+      <c r="G282" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="5">
+      <c r="H282" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -8324,28 +8372,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="5">
+      <c r="B284" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="5">
+      <c r="C284" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="5">
+      <c r="D284" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="5">
+      <c r="E284" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="5">
+      <c r="F284" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="5">
+      <c r="G284" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="5">
+      <c r="H284" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="5">
+      <c r="I284" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -8433,10 +8481,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="5" t="s">
+      <c r="J287" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8480,28 +8528,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="5">
+      <c r="A289" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="5">
+      <c r="B289" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="5">
+      <c r="C289" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="5">
+      <c r="E289" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="5">
+      <c r="F289" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="5">
+      <c r="G289" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="5">
+      <c r="H289" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -8526,28 +8574,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="5">
+      <c r="B291" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="5">
+      <c r="C291" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="5">
+      <c r="D291" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="5">
+      <c r="E291" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="5">
+      <c r="F291" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="5">
+      <c r="G291" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="5">
+      <c r="H291" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="5">
+      <c r="I291" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -8664,10 +8712,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="5" t="s">
+      <c r="J295" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8711,28 +8759,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="5">
+      <c r="A297" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="5">
+      <c r="B297" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="5">
+      <c r="C297" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="5">
+      <c r="E297" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="5">
+      <c r="F297" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="5">
+      <c r="G297" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="5">
+      <c r="H297" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -8757,28 +8805,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="5">
+      <c r="B299" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="5">
+      <c r="C299" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="5">
+      <c r="D299" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="5">
+      <c r="E299" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="5">
+      <c r="F299" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="5">
+      <c r="G299" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="5">
+      <c r="H299" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="5">
+      <c r="I299" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -8837,10 +8885,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="5" t="s">
+      <c r="J301" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9568" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13248" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -188,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -203,6 +228,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -225,26 +255,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="true">
-      <c r="A1" t="s" s="13">
+    <row r="1" s="18" customFormat="true">
+      <c r="A1" t="s" s="18">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" t="s" s="18">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="13">
+      <c r="C1" t="s" s="18">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="13">
+      <c r="D1" t="s" s="18">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="13">
+      <c r="E1" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="13">
+      <c r="F1" t="s" s="18">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="13">
+      <c r="G1" t="s" s="18">
         <v>7</v>
       </c>
     </row>
@@ -272,28 +302,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="13">
+      <c r="A3" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="13">
+      <c r="B3" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="13">
+      <c r="C3" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="13">
+      <c r="E3" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="13">
+      <c r="F3" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="13">
+      <c r="G3" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="13">
+      <c r="H3" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -318,28 +348,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="13">
+      <c r="B5" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="13">
+      <c r="C5" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="13">
+      <c r="D5" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="13">
+      <c r="E5" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="13">
+      <c r="F5" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="13">
+      <c r="G5" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="13">
+      <c r="H5" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="13">
+      <c r="I5" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -456,10 +486,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="13" t="s">
+      <c r="J9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -503,28 +533,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="13">
+      <c r="A11" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="13">
+      <c r="B11" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="13">
+      <c r="C11" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="13">
+      <c r="E11" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="13">
+      <c r="F11" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="13">
+      <c r="G11" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="13">
+      <c r="H11" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -549,28 +579,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="13">
+      <c r="B13" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="13">
+      <c r="C13" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="13">
+      <c r="D13" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="13">
+      <c r="E13" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="13">
+      <c r="F13" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="13">
+      <c r="G13" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="13">
+      <c r="H13" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="13">
+      <c r="I13" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -658,10 +688,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="13" t="s">
+      <c r="J16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -705,28 +735,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="13">
+      <c r="A18" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="13">
+      <c r="B18" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="13">
+      <c r="C18" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="13">
+      <c r="E18" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="13">
+      <c r="F18" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="13">
+      <c r="G18" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="13">
+      <c r="H18" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -751,28 +781,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="13">
+      <c r="B20" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="13">
+      <c r="C20" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="13">
+      <c r="D20" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="13">
+      <c r="E20" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="13">
+      <c r="F20" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="13">
+      <c r="G20" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="13">
+      <c r="H20" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="13">
+      <c r="I20" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -860,10 +890,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="13" t="s">
+      <c r="J23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -907,28 +937,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="13">
+      <c r="A25" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="13">
+      <c r="B25" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="13">
+      <c r="C25" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="13">
+      <c r="E25" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="13">
+      <c r="F25" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="13">
+      <c r="G25" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="13">
+      <c r="H25" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -953,28 +983,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="13">
+      <c r="B27" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="13">
+      <c r="C27" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="13">
+      <c r="D27" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="13">
+      <c r="E27" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="13">
+      <c r="F27" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="13">
+      <c r="G27" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="13">
+      <c r="H27" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="13">
+      <c r="I27" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -1091,10 +1121,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="13" t="s">
+      <c r="J31" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1138,28 +1168,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="13">
+      <c r="A33" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="13">
+      <c r="B33" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="13">
+      <c r="C33" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="13">
+      <c r="E33" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="13">
+      <c r="F33" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="13">
+      <c r="G33" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="13">
+      <c r="H33" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -1184,28 +1214,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="13">
+      <c r="B35" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="13">
+      <c r="C35" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="13">
+      <c r="D35" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="13">
+      <c r="E35" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="13">
+      <c r="F35" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="13">
+      <c r="G35" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="13">
+      <c r="H35" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="13">
+      <c r="I35" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -1293,10 +1323,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="13" t="s">
+      <c r="J38" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1340,28 +1370,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="13">
+      <c r="A40" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="13">
+      <c r="B40" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="13">
+      <c r="C40" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="13">
+      <c r="E40" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="13">
+      <c r="F40" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="13">
+      <c r="G40" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="13">
+      <c r="H40" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -1386,28 +1416,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="13">
+      <c r="B42" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="13">
+      <c r="C42" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="13">
+      <c r="D42" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="13">
+      <c r="E42" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="13">
+      <c r="F42" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="13">
+      <c r="G42" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="13">
+      <c r="H42" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="13">
+      <c r="I42" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -1524,10 +1554,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="13" t="s">
+      <c r="J46" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1571,28 +1601,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="13">
+      <c r="A48" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="13">
+      <c r="B48" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="13">
+      <c r="C48" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="13">
+      <c r="E48" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="13">
+      <c r="F48" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="13">
+      <c r="G48" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="13">
+      <c r="H48" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -1617,28 +1647,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="13">
+      <c r="B50" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="13">
+      <c r="C50" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="13">
+      <c r="D50" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="13">
+      <c r="E50" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="13">
+      <c r="F50" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="13">
+      <c r="G50" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="13">
+      <c r="H50" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="13">
+      <c r="I50" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -1755,10 +1785,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="13" t="s">
+      <c r="J54" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1802,28 +1832,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="13">
+      <c r="A56" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="13">
+      <c r="B56" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="13">
+      <c r="C56" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="13">
+      <c r="E56" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="13">
+      <c r="F56" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="13">
+      <c r="G56" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="13">
+      <c r="H56" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -1848,28 +1878,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="13">
+      <c r="B58" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="13">
+      <c r="C58" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="13">
+      <c r="D58" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="13">
+      <c r="E58" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="13">
+      <c r="F58" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="13">
+      <c r="G58" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="13">
+      <c r="H58" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="13">
+      <c r="I58" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -1957,10 +1987,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="13" t="s">
+      <c r="J61" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -2004,28 +2034,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="13">
+      <c r="A63" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="13">
+      <c r="B63" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="13">
+      <c r="C63" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="13">
+      <c r="E63" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="13">
+      <c r="F63" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="13">
+      <c r="G63" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="13">
+      <c r="H63" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -2050,28 +2080,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="13">
+      <c r="B65" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="13">
+      <c r="C65" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="13">
+      <c r="D65" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="13">
+      <c r="E65" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="13">
+      <c r="F65" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="13">
+      <c r="G65" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="13">
+      <c r="H65" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="13">
+      <c r="I65" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -2159,10 +2189,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="13" t="s">
+      <c r="J68" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2206,28 +2236,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="13">
+      <c r="A70" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="13">
+      <c r="B70" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="13">
+      <c r="C70" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="13">
+      <c r="E70" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="13">
+      <c r="F70" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="13">
+      <c r="G70" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="13">
+      <c r="H70" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -2252,28 +2282,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="13">
+      <c r="B72" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="13">
+      <c r="C72" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="13">
+      <c r="D72" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="13">
+      <c r="E72" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="13">
+      <c r="F72" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="13">
+      <c r="G72" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="13">
+      <c r="H72" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="13">
+      <c r="I72" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -2361,10 +2391,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="13" t="s">
+      <c r="J75" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2408,28 +2438,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="13">
+      <c r="A77" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="13">
+      <c r="B77" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="13">
+      <c r="C77" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="13">
+      <c r="E77" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="13">
+      <c r="F77" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="13">
+      <c r="G77" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="13">
+      <c r="H77" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -2454,28 +2484,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="13">
+      <c r="B79" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="13">
+      <c r="C79" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="13">
+      <c r="D79" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="13">
+      <c r="E79" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="13">
+      <c r="F79" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="13">
+      <c r="G79" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="13">
+      <c r="H79" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="13">
+      <c r="I79" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -2592,10 +2622,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="13" t="s">
+      <c r="J83" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2639,28 +2669,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="13">
+      <c r="A85" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="13">
+      <c r="B85" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="13">
+      <c r="C85" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="13">
+      <c r="E85" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="13">
+      <c r="F85" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="13">
+      <c r="G85" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="13">
+      <c r="H85" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -2685,28 +2715,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="13">
+      <c r="B87" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="13">
+      <c r="C87" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="13">
+      <c r="D87" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="13">
+      <c r="E87" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="13">
+      <c r="F87" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="13">
+      <c r="G87" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="13">
+      <c r="H87" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="13">
+      <c r="I87" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -2794,10 +2824,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="13" t="s">
+      <c r="J90" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2841,28 +2871,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="13">
+      <c r="A92" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="13">
+      <c r="B92" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="13">
+      <c r="C92" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="13">
+      <c r="E92" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="13">
+      <c r="F92" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="13">
+      <c r="G92" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="13">
+      <c r="H92" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -2887,28 +2917,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="13">
+      <c r="B94" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="13">
+      <c r="C94" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="13">
+      <c r="D94" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="13">
+      <c r="E94" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="13">
+      <c r="F94" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="13">
+      <c r="G94" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="13">
+      <c r="H94" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="13">
+      <c r="I94" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -3025,10 +3055,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="13" t="s">
+      <c r="J98" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3072,28 +3102,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="13">
+      <c r="A100" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="13">
+      <c r="B100" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="13">
+      <c r="C100" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="13">
+      <c r="E100" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="13">
+      <c r="F100" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="13">
+      <c r="G100" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="13">
+      <c r="H100" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -3118,28 +3148,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="13">
+      <c r="B102" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="13">
+      <c r="C102" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="13">
+      <c r="D102" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="13">
+      <c r="E102" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="13">
+      <c r="F102" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="13">
+      <c r="G102" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="13">
+      <c r="H102" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="13">
+      <c r="I102" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -3227,10 +3257,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="13" t="s">
+      <c r="J105" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3274,28 +3304,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="13">
+      <c r="A107" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="13">
+      <c r="B107" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="13">
+      <c r="C107" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="13">
+      <c r="E107" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="13">
+      <c r="F107" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="13">
+      <c r="G107" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="13">
+      <c r="H107" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -3320,28 +3350,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="13">
+      <c r="B109" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="13">
+      <c r="C109" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="13">
+      <c r="D109" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="13">
+      <c r="E109" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="13">
+      <c r="F109" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="13">
+      <c r="G109" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="13">
+      <c r="H109" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="13">
+      <c r="I109" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -3458,10 +3488,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="13" t="s">
+      <c r="J113" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3505,28 +3535,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="13">
+      <c r="A115" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="13">
+      <c r="B115" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="13">
+      <c r="C115" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="13">
+      <c r="E115" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="13">
+      <c r="F115" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="13">
+      <c r="G115" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="13">
+      <c r="H115" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -3551,28 +3581,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="13">
+      <c r="B117" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="13">
+      <c r="C117" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="13">
+      <c r="D117" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="13">
+      <c r="E117" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="13">
+      <c r="F117" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="13">
+      <c r="G117" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="13">
+      <c r="H117" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="13">
+      <c r="I117" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -3689,10 +3719,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="13" t="s">
+      <c r="J121" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3736,28 +3766,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="13">
+      <c r="A123" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="13">
+      <c r="B123" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="13">
+      <c r="C123" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="13">
+      <c r="E123" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="13">
+      <c r="F123" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="13">
+      <c r="G123" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="13">
+      <c r="H123" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -3782,28 +3812,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="13">
+      <c r="B125" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="13">
+      <c r="C125" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="13">
+      <c r="D125" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="13">
+      <c r="E125" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="13">
+      <c r="F125" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="13">
+      <c r="G125" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="13">
+      <c r="H125" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="13">
+      <c r="I125" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -3920,10 +3950,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="13" t="s">
+      <c r="J129" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3967,28 +3997,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="13">
+      <c r="A131" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="13">
+      <c r="B131" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="13">
+      <c r="C131" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="13">
+      <c r="E131" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="13">
+      <c r="F131" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="13">
+      <c r="G131" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="13">
+      <c r="H131" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -4013,28 +4043,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="13">
+      <c r="B133" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="13">
+      <c r="C133" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="13">
+      <c r="D133" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="13">
+      <c r="E133" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="13">
+      <c r="F133" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="13">
+      <c r="G133" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="13">
+      <c r="H133" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="13">
+      <c r="I133" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -4122,10 +4152,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="13" t="s">
+      <c r="J136" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4169,28 +4199,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="13">
+      <c r="A138" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="13">
+      <c r="B138" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="13">
+      <c r="C138" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="13">
+      <c r="E138" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="13">
+      <c r="F138" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="13">
+      <c r="G138" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="13">
+      <c r="H138" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -4215,28 +4245,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="13">
+      <c r="B140" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="13">
+      <c r="C140" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="13">
+      <c r="D140" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="13">
+      <c r="E140" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="13">
+      <c r="F140" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="13">
+      <c r="G140" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="13">
+      <c r="H140" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="13">
+      <c r="I140" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -4353,10 +4383,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="13" t="s">
+      <c r="J144" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4400,28 +4430,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="13">
+      <c r="A146" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="13">
+      <c r="B146" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="13">
+      <c r="C146" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="13">
+      <c r="E146" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="13">
+      <c r="F146" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="13">
+      <c r="G146" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="13">
+      <c r="H146" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -4446,28 +4476,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="13">
+      <c r="B148" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="13">
+      <c r="C148" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="13">
+      <c r="D148" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="13">
+      <c r="E148" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="13">
+      <c r="F148" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="13">
+      <c r="G148" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="13">
+      <c r="H148" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="13">
+      <c r="I148" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -4555,10 +4585,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="13" t="s">
+      <c r="J151" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4602,28 +4632,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="13">
+      <c r="A153" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="13">
+      <c r="B153" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="13">
+      <c r="C153" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="13">
+      <c r="E153" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="13">
+      <c r="F153" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="13">
+      <c r="G153" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="13">
+      <c r="H153" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -4648,28 +4678,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="13">
+      <c r="B155" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="13">
+      <c r="C155" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="13">
+      <c r="D155" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="13">
+      <c r="E155" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="13">
+      <c r="F155" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="13">
+      <c r="G155" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="13">
+      <c r="H155" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="13">
+      <c r="I155" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -4757,10 +4787,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="13" t="s">
+      <c r="J158" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4804,28 +4834,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="13">
+      <c r="A160" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="13">
+      <c r="B160" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="13">
+      <c r="C160" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="13">
+      <c r="E160" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="13">
+      <c r="F160" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="13">
+      <c r="G160" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="13">
+      <c r="H160" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -4850,28 +4880,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="13">
+      <c r="B162" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="13">
+      <c r="C162" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="13">
+      <c r="D162" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="13">
+      <c r="E162" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="13">
+      <c r="F162" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="13">
+      <c r="G162" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="13">
+      <c r="H162" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="13">
+      <c r="I162" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -4959,10 +4989,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="13" t="s">
+      <c r="J165" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -5006,28 +5036,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="13">
+      <c r="A167" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="13">
+      <c r="B167" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="13">
+      <c r="C167" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="13">
+      <c r="E167" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="13">
+      <c r="F167" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="13">
+      <c r="G167" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="13">
+      <c r="H167" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -5052,28 +5082,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="13">
+      <c r="B169" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="13">
+      <c r="C169" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="13">
+      <c r="D169" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="13">
+      <c r="E169" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="13">
+      <c r="F169" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="13">
+      <c r="G169" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="13">
+      <c r="H169" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="13">
+      <c r="I169" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -5190,10 +5220,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="13" t="s">
+      <c r="J173" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5237,28 +5267,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="13">
+      <c r="A175" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="13">
+      <c r="B175" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="13">
+      <c r="C175" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="13">
+      <c r="E175" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="13">
+      <c r="F175" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="13">
+      <c r="G175" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="13">
+      <c r="H175" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -5283,28 +5313,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="13">
+      <c r="B177" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="13">
+      <c r="C177" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="13">
+      <c r="D177" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="13">
+      <c r="E177" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="13">
+      <c r="F177" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="13">
+      <c r="G177" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="13">
+      <c r="H177" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="13">
+      <c r="I177" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -5421,10 +5451,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="13" t="s">
+      <c r="J181" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5468,28 +5498,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="13">
+      <c r="A183" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="13">
+      <c r="B183" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="13">
+      <c r="C183" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="13">
+      <c r="E183" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="13">
+      <c r="F183" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="13">
+      <c r="G183" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="13">
+      <c r="H183" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -5514,28 +5544,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="13">
+      <c r="B185" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="13">
+      <c r="C185" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="13">
+      <c r="D185" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="13">
+      <c r="E185" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="13">
+      <c r="F185" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="13">
+      <c r="G185" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="13">
+      <c r="H185" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="13">
+      <c r="I185" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -5652,10 +5682,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="13" t="s">
+      <c r="J189" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5699,28 +5729,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="13">
+      <c r="A191" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="13">
+      <c r="B191" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="13">
+      <c r="C191" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="13">
+      <c r="E191" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="13">
+      <c r="F191" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="13">
+      <c r="G191" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="13">
+      <c r="H191" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -5745,28 +5775,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="13">
+      <c r="B193" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="13">
+      <c r="C193" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="13">
+      <c r="D193" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="13">
+      <c r="E193" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="13">
+      <c r="F193" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="13">
+      <c r="G193" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="13">
+      <c r="H193" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="13">
+      <c r="I193" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -5883,10 +5913,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="13" t="s">
+      <c r="J197" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5930,28 +5960,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="13">
+      <c r="A199" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="13">
+      <c r="B199" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="13">
+      <c r="C199" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="13">
+      <c r="E199" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="13">
+      <c r="F199" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="13">
+      <c r="G199" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="13">
+      <c r="H199" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -5976,28 +6006,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="13">
+      <c r="B201" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="13">
+      <c r="C201" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="13">
+      <c r="D201" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="13">
+      <c r="E201" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="13">
+      <c r="F201" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="13">
+      <c r="G201" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="13">
+      <c r="H201" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="13">
+      <c r="I201" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -6114,10 +6144,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="13" t="s">
+      <c r="J205" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6161,28 +6191,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="13">
+      <c r="A207" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="13">
+      <c r="B207" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="13">
+      <c r="C207" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="13">
+      <c r="E207" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="13">
+      <c r="F207" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="13">
+      <c r="G207" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="13">
+      <c r="H207" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -6207,28 +6237,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="13">
+      <c r="B209" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="13">
+      <c r="C209" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="13">
+      <c r="D209" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="13">
+      <c r="E209" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="13">
+      <c r="F209" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="13">
+      <c r="G209" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="13">
+      <c r="H209" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="13">
+      <c r="I209" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -6316,10 +6346,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="13" t="s">
+      <c r="J212" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6363,28 +6393,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="13">
+      <c r="A214" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="13">
+      <c r="B214" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="13">
+      <c r="C214" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="13">
+      <c r="E214" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="13">
+      <c r="F214" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="13">
+      <c r="G214" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="13">
+      <c r="H214" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -6409,28 +6439,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="13">
+      <c r="B216" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="13">
+      <c r="C216" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="13">
+      <c r="D216" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="13">
+      <c r="E216" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="13">
+      <c r="F216" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="13">
+      <c r="G216" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="13">
+      <c r="H216" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="13">
+      <c r="I216" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -6518,10 +6548,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="13" t="s">
+      <c r="J219" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6565,28 +6595,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="13">
+      <c r="A221" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="13">
+      <c r="B221" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="13">
+      <c r="C221" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="13">
+      <c r="E221" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="13">
+      <c r="F221" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="13">
+      <c r="G221" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="13">
+      <c r="H221" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -6611,28 +6641,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="13">
+      <c r="B223" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="13">
+      <c r="C223" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="13">
+      <c r="D223" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="13">
+      <c r="E223" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="13">
+      <c r="F223" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="13">
+      <c r="G223" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="13">
+      <c r="H223" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="13">
+      <c r="I223" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -6720,10 +6750,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="13" t="s">
+      <c r="J226" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6767,28 +6797,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="13">
+      <c r="A228" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="13">
+      <c r="B228" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="13">
+      <c r="C228" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="13">
+      <c r="E228" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="13">
+      <c r="F228" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="13">
+      <c r="G228" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="13">
+      <c r="H228" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -6813,28 +6843,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="13">
+      <c r="B230" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="13">
+      <c r="C230" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="13">
+      <c r="D230" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="13">
+      <c r="E230" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="13">
+      <c r="F230" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="13">
+      <c r="G230" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="13">
+      <c r="H230" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="13">
+      <c r="I230" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -6922,10 +6952,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="13" t="s">
+      <c r="J233" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6969,28 +6999,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="13">
+      <c r="A235" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="13">
+      <c r="B235" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="13">
+      <c r="C235" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="13">
+      <c r="E235" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="13">
+      <c r="F235" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="13">
+      <c r="G235" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="13">
+      <c r="H235" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -7015,28 +7045,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="13">
+      <c r="B237" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="13">
+      <c r="C237" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="13">
+      <c r="D237" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="13">
+      <c r="E237" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="13">
+      <c r="F237" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="13">
+      <c r="G237" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="13">
+      <c r="H237" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="13">
+      <c r="I237" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -7124,10 +7154,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="13" t="s">
+      <c r="J240" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7171,28 +7201,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="13">
+      <c r="A242" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="13">
+      <c r="B242" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="13">
+      <c r="C242" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="13">
+      <c r="E242" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="13">
+      <c r="F242" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="13">
+      <c r="G242" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="13">
+      <c r="H242" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -7217,28 +7247,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="13">
+      <c r="B244" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="13">
+      <c r="C244" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="13">
+      <c r="D244" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="13">
+      <c r="E244" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="13">
+      <c r="F244" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="13">
+      <c r="G244" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="13">
+      <c r="H244" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="13">
+      <c r="I244" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -7326,10 +7356,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="13" t="s">
+      <c r="J247" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7373,28 +7403,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="13">
+      <c r="A249" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="13">
+      <c r="B249" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="13">
+      <c r="C249" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="13">
+      <c r="E249" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="13">
+      <c r="F249" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="13">
+      <c r="G249" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="13">
+      <c r="H249" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -7419,28 +7449,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="13">
+      <c r="B251" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="13">
+      <c r="C251" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="13">
+      <c r="D251" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="13">
+      <c r="E251" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="13">
+      <c r="F251" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="13">
+      <c r="G251" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="13">
+      <c r="H251" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="13">
+      <c r="I251" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -7557,10 +7587,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="13" t="s">
+      <c r="J255" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7604,28 +7634,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="13">
+      <c r="A257" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="13">
+      <c r="B257" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="13">
+      <c r="C257" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="13">
+      <c r="E257" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="13">
+      <c r="F257" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="13">
+      <c r="G257" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="13">
+      <c r="H257" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -7650,28 +7680,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="13">
+      <c r="B259" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="13">
+      <c r="C259" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="13">
+      <c r="D259" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="13">
+      <c r="E259" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="13">
+      <c r="F259" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="13">
+      <c r="G259" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="13">
+      <c r="H259" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="13">
+      <c r="I259" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -7817,10 +7847,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="13" t="s">
+      <c r="J264" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7864,28 +7894,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="13">
+      <c r="A266" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="13">
+      <c r="B266" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="13">
+      <c r="C266" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="13">
+      <c r="E266" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="13">
+      <c r="F266" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="13">
+      <c r="G266" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="13">
+      <c r="H266" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -7910,28 +7940,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="13">
+      <c r="B268" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="13">
+      <c r="C268" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="13">
+      <c r="D268" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="13">
+      <c r="E268" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="13">
+      <c r="F268" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="13">
+      <c r="G268" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="13">
+      <c r="H268" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="13">
+      <c r="I268" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -8048,10 +8078,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="13" t="s">
+      <c r="J272" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8095,28 +8125,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="13">
+      <c r="A274" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="13">
+      <c r="B274" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="13">
+      <c r="C274" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="13">
+      <c r="E274" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="13">
+      <c r="F274" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="13">
+      <c r="G274" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="13">
+      <c r="H274" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -8141,28 +8171,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="13">
+      <c r="B276" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="13">
+      <c r="C276" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="13">
+      <c r="D276" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="13">
+      <c r="E276" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="13">
+      <c r="F276" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="13">
+      <c r="G276" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="13">
+      <c r="H276" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="13">
+      <c r="I276" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -8279,10 +8309,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="13" t="s">
+      <c r="J280" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8326,28 +8356,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="13">
+      <c r="A282" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="13">
+      <c r="B282" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="13">
+      <c r="C282" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="13">
+      <c r="E282" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="13">
+      <c r="F282" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="13">
+      <c r="G282" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="13">
+      <c r="H282" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -8372,28 +8402,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="13">
+      <c r="B284" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="13">
+      <c r="C284" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="13">
+      <c r="D284" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="13">
+      <c r="E284" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="13">
+      <c r="F284" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="13">
+      <c r="G284" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="13">
+      <c r="H284" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="13">
+      <c r="I284" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -8481,10 +8511,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="13" t="s">
+      <c r="J287" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8528,28 +8558,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="13">
+      <c r="A289" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="13">
+      <c r="B289" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="13">
+      <c r="C289" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="13">
+      <c r="E289" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="13">
+      <c r="F289" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="13">
+      <c r="G289" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="13">
+      <c r="H289" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -8574,28 +8604,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="13">
+      <c r="B291" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="13">
+      <c r="C291" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="13">
+      <c r="D291" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="13">
+      <c r="E291" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="13">
+      <c r="F291" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="13">
+      <c r="G291" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="13">
+      <c r="H291" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="13">
+      <c r="I291" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -8712,10 +8742,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="13" t="s">
+      <c r="J295" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8759,28 +8789,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="13">
+      <c r="A297" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="13">
+      <c r="B297" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="13">
+      <c r="C297" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="13">
+      <c r="E297" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="13">
+      <c r="F297" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="13">
+      <c r="G297" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="13">
+      <c r="H297" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -8805,28 +8835,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="13">
+      <c r="B299" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="13">
+      <c r="C299" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="13">
+      <c r="D299" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="13">
+      <c r="E299" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="13">
+      <c r="F299" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="13">
+      <c r="G299" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="13">
+      <c r="H299" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="13">
+      <c r="I299" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -8885,10 +8915,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="13" t="s">
+      <c r="J301" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
